--- a/encuestaSocio/src/fichero/EvolucionEncuestaSocio.xlsx
+++ b/encuestaSocio/src/fichero/EvolucionEncuestaSocio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\Practicas\T2 Encuesta\"/>
     </mc:Choice>
@@ -215,7 +215,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1033,8 +1032,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.28515625"/>
-    <col min="2" max="37" customWidth="true" width="5.5703125"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="37" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
@@ -1227,9 +1226,6 @@
         <v>19</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" t="n" s="0">
-        <v>19.0</v>
-      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1254,9 +1250,6 @@
         <v>54</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" t="n" s="0">
-        <v>21.0</v>
-      </c>
     </row>
     <row r="11" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="62" t="s">
@@ -10045,7 +10038,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" customWidth="true" width="10.7109375"/>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11042,7 +11035,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" customWidth="true" width="10.7109375"/>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
